--- a/configGenerator/build-v2.3.xlsx
+++ b/configGenerator/build-v2.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\github\coding\configGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C2CBFA-84DB-468C-8449-7F21542FF00A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9436510-72D2-4965-BA77-C796D78B317A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="821" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="821" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="38" r:id="rId1"/>
@@ -33,10 +33,10 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Antonio Rancan - Personal View" guid="{A51A5771-F587-4881-8145-5B511593152D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="765" tabRatio="821" activeSheetId="2"/>
+    <customWorkbookView name="Toby Glover (AU) - Personal View" guid="{15631968-D71A-4884-93E6-5C15C824CC8D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1355" windowHeight="655" tabRatio="821" activeSheetId="3"/>
+    <customWorkbookView name="Toby Glover - Personal View" guid="{575E0B32-F3B9-411F-9986-6EA0FDA8084C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1489" windowHeight="688" tabRatio="821" activeSheetId="2"/>
     <customWorkbookView name="Abdul El-Assaad - Personal View" guid="{54B735CD-7234-46A7-84BF-A3B4FFF9A8C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1168" tabRatio="821" activeSheetId="11"/>
-    <customWorkbookView name="Toby Glover - Personal View" guid="{575E0B32-F3B9-411F-9986-6EA0FDA8084C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1489" windowHeight="688" tabRatio="821" activeSheetId="2"/>
-    <customWorkbookView name="Toby Glover (AU) - Personal View" guid="{15631968-D71A-4884-93E6-5C15C824CC8D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1355" windowHeight="655" tabRatio="821" activeSheetId="3"/>
-    <customWorkbookView name="Antonio Rancan - Personal View" guid="{A51A5771-F587-4881-8145-5B511593152D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="765" tabRatio="821" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3017,18 +3017,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3043,6 +3031,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3480,448 +3480,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -4266,6 +3824,434 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -5028,6 +5014,20 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5357,96 +5357,96 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:C43" totalsRowShown="0" headerRowDxfId="70" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:C43" totalsRowShown="0" headerRowDxfId="68" tableBorderDxfId="67">
   <autoFilter ref="A1:C43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Device Name" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="VLAN No" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="VLAN Name" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Device Name" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="VLAN No" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="VLAN Name" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table8" displayName="Table8" ref="A1:H12" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table8" displayName="Table8" ref="A1:H12" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="A1:H12" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Device Name" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Interface" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Interface Enabled (yes/no)" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Port-Channel Group" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Port-Channel Mode (active/on/etc)" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Port-Channel Type (layer2 or layer3)" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Port-Channel Members (separated by commas)" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Description" dataDxfId="55" dataCellStyle="Normal 6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Device Name" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Interface" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Interface Enabled (yes/no)" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Port-Channel Group" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Port-Channel Mode (active/on/etc)" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Port-Channel Type (layer2 or layer3)" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Port-Channel Members (separated by commas)" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Description" dataDxfId="53" dataCellStyle="Normal 6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15" displayName="Table15" ref="A1:F10" totalsRowShown="0" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15" displayName="Table15" ref="A1:F10" totalsRowShown="0" tableBorderDxfId="52">
   <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Device Name" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="VRF" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="RD" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Import RT  (separated by commas)" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Export RT  (separated by commas)" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Variable" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Device Name" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="VRF" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="RD" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Import RT  (separated by commas)" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Export RT  (separated by commas)" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Variable" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:O257" totalsRowCount="1" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:O257" totalsRowCount="1" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A1:O256" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Device Name" dataDxfId="29" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Interface" dataDxfId="28" totalsRowDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Interface Enabled (yes/no)" dataDxfId="27" totalsRowDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Speed" dataDxfId="26" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Duplex" dataDxfId="25" totalsRowDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="MTU" dataDxfId="24" totalsRowDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Description" dataDxfId="23" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Variable 1" dataDxfId="22" totalsRowDxfId="7" dataCellStyle="Normal 4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Variable 2" dataDxfId="21" totalsRowDxfId="6" dataCellStyle="Normal 4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="VRF (leave blank if global)" dataDxfId="20" totalsRowDxfId="5" dataCellStyle="Normal 4"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="IP Address (x.x.x.x/x)" dataDxfId="19" totalsRowDxfId="4" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Data VLAN" dataDxfId="18" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Voice VLAN" dataDxfId="17" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Trunk Native VLAN" dataDxfId="16" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Trunk Allowed VLANs (separated by commas)" dataDxfId="15" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Device Name" dataDxfId="41" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Interface" dataDxfId="40" totalsRowDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Interface Enabled (yes/no)" dataDxfId="39" totalsRowDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Speed" dataDxfId="38" totalsRowDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Duplex" dataDxfId="37" totalsRowDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="MTU" dataDxfId="36" totalsRowDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Description" dataDxfId="35" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Variable 1" dataDxfId="34" totalsRowDxfId="7" dataCellStyle="Normal 4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Variable 2" dataDxfId="33" totalsRowDxfId="6" dataCellStyle="Normal 4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="VRF (leave blank if global)" dataDxfId="32" totalsRowDxfId="5" dataCellStyle="Normal 4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="IP Address (x.x.x.x/x)" dataDxfId="31" totalsRowDxfId="4" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Data VLAN" dataDxfId="30" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Voice VLAN" dataDxfId="29" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Trunk Native VLAN" dataDxfId="28" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Trunk Allowed VLANs (separated by commas)" dataDxfId="27" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table156" displayName="Table156" ref="A1:E9" totalsRowShown="0" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table156" displayName="Table156" ref="A1:E9" totalsRowShown="0" tableBorderDxfId="26">
   <autoFilter ref="A1:E9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Device Name" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="VRF (leave blank if global)" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Route (x.x.x.x/x)" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Next Hop" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Route Name (no spaces)" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Device Name" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="VRF (leave blank if global)" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Route (x.x.x.x/x)" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Next Hop" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Route Name (no spaces)" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table15611" displayName="Table15611" ref="A1:E15" totalsRowShown="0" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table15611" displayName="Table15611" ref="A1:E15" totalsRowShown="0" tableBorderDxfId="20">
   <autoFilter ref="A1:E15" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Device Name" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Prefix-List Name" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Prefix-List Sequence No" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Prefix-List Action (permit/deny)" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Prefix-List Entry" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Device Name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Prefix-List Name" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Prefix-List Sequence No" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Prefix-List Action (permit/deny)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Prefix-List Entry" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5780,18 +5780,18 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="96.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="96.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
@@ -5802,218 +5802,210 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B7" s="101">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="104">
         <v>1</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="106" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="161.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="102"/>
-      <c r="C8" s="100"/>
+    <row r="8" spans="2:4" ht="190.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="105"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="34" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B9" s="101">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="104">
         <v>2</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="106" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="B10" s="102"/>
-      <c r="C10" s="100"/>
+    <row r="10" spans="2:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B11" s="101">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="104">
         <v>3</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="106" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="102"/>
-      <c r="C12" s="100"/>
+    <row r="12" spans="2:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="105"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B13" s="101">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="104">
         <v>4</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="106" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="102"/>
-      <c r="C14" s="100"/>
+    <row r="14" spans="2:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="105"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B15" s="101">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="104">
         <v>5</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="106" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="C16" s="100"/>
+    <row r="16" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B16" s="105"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B17" s="101">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="104">
         <v>6</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="106" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="B18" s="102"/>
-      <c r="C18" s="100"/>
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B18" s="105"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B19" s="101">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="104">
         <v>7</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="106" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="80" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
-      <c r="C20" s="100"/>
+    <row r="20" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B20" s="105"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B21" s="101">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="104">
         <v>8</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="106" t="s">
         <v>223</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="102"/>
-      <c r="C22" s="100"/>
+    <row r="22" spans="2:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="105"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="34" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B23" s="101">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="104">
         <v>9</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="106" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
-      <c r="C24" s="100"/>
+    <row r="24" spans="2:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="105"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="34" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B23:B24"/>
@@ -6024,6 +6016,14 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6040,15 +6040,15 @@
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6065,98 +6065,98 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -6180,1865 +6180,1865 @@
       <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="82.90625" customWidth="1"/>
+    <col min="1" max="1" width="82.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="71" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="71" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="83"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="84"/>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="84"/>
     </row>
-    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="83" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="83" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="83"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="84"/>
     </row>
-    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="83" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="83" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="83" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="83" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="83" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="83" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="83" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="83" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="83" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="83" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="83" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="83" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="83" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="83" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="83" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="83" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="83" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="83" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="83" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="83" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="83" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="83" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="83" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="83" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="83" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="83" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="83" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="83" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="83" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="83" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="83" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="83" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="84"/>
     </row>
-    <row r="87" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="71" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="83" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="83" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="83" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="83" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="83" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="83" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="83" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="83" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="83" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="83" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="94" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="83" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="83" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="83" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="83" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="83" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="83" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="83" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="83" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="83" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="83" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="83" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="83" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="83" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="83" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="83" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="83" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="83" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="83" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="83" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="83" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="84"/>
     </row>
-    <row r="135" spans="1:3" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A135" s="71" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="83" t="s">
         <v>240</v>
       </c>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="83" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="83" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="83" t="s">
         <v>199</v>
       </c>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="83" t="s">
         <v>357</v>
       </c>
       <c r="C140" s="40"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="83"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="83" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="83" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="83" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="83" t="s">
         <v>346</v>
       </c>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="83" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="83" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="83" t="s">
         <v>347</v>
       </c>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="83" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="83" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="83" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="83" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="83" t="s">
         <v>358</v>
       </c>
       <c r="C154" s="40"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="83"/>
     </row>
-    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="83" t="s">
         <v>350</v>
       </c>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="83" t="s">
         <v>359</v>
       </c>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="83"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="83" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="83" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="83" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="83" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="83" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="83" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="83" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="83" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="83"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="83" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="83" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="83" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="83" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="83" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="83" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="83"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="83" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="83" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="83" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="83" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="83"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="83" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="83" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="83" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="83" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="83" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="83" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="83" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="83" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="83" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="83" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="83" t="s">
         <v>360</v>
       </c>
       <c r="C191" s="40"/>
     </row>
-    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="83" t="s">
         <v>361</v>
       </c>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="83"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="83" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="83" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="83" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="83" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="83" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="83"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="83" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="83" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="83" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="83" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="83" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="83" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="83" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="83" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="83" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="83" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="83"/>
     </row>
-    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="83" t="s">
         <v>362</v>
       </c>
       <c r="C211" s="40"/>
     </row>
-    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="83" t="s">
         <v>343</v>
       </c>
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="83" t="s">
         <v>363</v>
       </c>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="83"/>
     </row>
-    <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="83" t="s">
         <v>364</v>
       </c>
       <c r="C215" s="40"/>
     </row>
-    <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="83" t="s">
         <v>365</v>
       </c>
       <c r="C216" s="40"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="83"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="83" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="83" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="83" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="83" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="83" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="83" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="83" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="83" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="83" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="83" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="83" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="83" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="83" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="83" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="83" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="83" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="83" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="83" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="83" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="83" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="83" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="83" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="83" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="83" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="83" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="83" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="83" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="83" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="83" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="83" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="83" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="83" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="83" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="83" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="83" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="83" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="83" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="83" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="83" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="83" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="83" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="83" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="83" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="83" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="83" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="83" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="83" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="83" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="83" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="83" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="83" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="83" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="83" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="83" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="83" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="83" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="83" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="83" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="83" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="83" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="83" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="83" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="83" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="83"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="83" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="83" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="83" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="83" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="83" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="83" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="83" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="83" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="83" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="83" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="83" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="83" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="83"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="83" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="83" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="83" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="83" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="83" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="83" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="83" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="83" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="83" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="83" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="83" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="83" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="83" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="83" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="83" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="83" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="83" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="83" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="83" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="83" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="83" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="83" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="83" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="83" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="83" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="83" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="83" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="83" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="83" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="83"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="83" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="83" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="83" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="83" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="83" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="83" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="83" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="83" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="83" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="83" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="83" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="83" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="83" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="83" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="83" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="83" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="83" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="83" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="83" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="83" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="83" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="83" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="83" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="83" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="83" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="83" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="83" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="83" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="83" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="83" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="83" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="83"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="83" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="83" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="83" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="83" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="83"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="83"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="83"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="83"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="83"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="83"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="83"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="83"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="83"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="83"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="83"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="83"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="83"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="83"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="83"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="83"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="83"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="83"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="83"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="83"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="83"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="83"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="83"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="83"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="83"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="83"/>
     </row>
   </sheetData>
@@ -8057,14 +8057,14 @@
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="41.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>3</v>
       </c>
@@ -8075,14 +8075,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="85" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>339</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="87" t="s">
         <v>340</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C4" s="47"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
         <v>52</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
         <v>54</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
         <v>338</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
         <v>210</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="89" t="s">
         <v>342</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
         <v>344</v>
       </c>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="C10" s="47"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="89" t="s">
         <v>238</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
         <v>353</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="89" t="s">
         <v>348</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
         <v>349</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="89" t="s">
         <v>354</v>
       </c>
@@ -8219,14 +8219,14 @@
       </c>
       <c r="C15" s="47"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
         <v>351</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="47"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="89" t="s">
         <v>352</v>
       </c>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="C17" s="36"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>175</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="89" t="s">
         <v>176</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="89" t="s">
         <v>177</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="89" t="s">
         <v>178</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="89" t="s">
         <v>179</v>
       </c>
@@ -8290,19 +8290,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="89"/>
       <c r="B23" s="36"/>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="85" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="47"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
         <v>250</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C25" s="47"/>
     </row>
-    <row r="26" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A26" s="89" t="s">
         <v>249</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C26" s="47"/>
     </row>
-    <row r="27" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="87" t="s">
         <v>514</v>
       </c>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="C27" s="47"/>
     </row>
-    <row r="28" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="87" t="s">
         <v>515</v>
       </c>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="C28" s="47"/>
     </row>
-    <row r="29" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="87" t="s">
         <v>516</v>
       </c>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="C29" s="47"/>
     </row>
-    <row r="30" spans="1:3" ht="130" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A30" s="87" t="s">
         <v>256</v>
       </c>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C30" s="47"/>
     </row>
-    <row r="31" spans="1:3" ht="170" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A31" s="87" t="s">
         <v>521</v>
       </c>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="C31" s="47"/>
     </row>
-    <row r="32" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A32" s="87" t="s">
         <v>260</v>
       </c>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="C32" s="47"/>
     </row>
-    <row r="33" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A33" s="87" t="s">
         <v>261</v>
       </c>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="C33" s="47"/>
     </row>
-    <row r="34" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A34" s="87" t="s">
         <v>263</v>
       </c>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C34" s="47"/>
     </row>
-    <row r="35" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A35" s="87" t="s">
         <v>264</v>
       </c>
@@ -8401,40 +8401,40 @@
       </c>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="88"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="88"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="88"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="88"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="88"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="88"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -8461,14 +8461,14 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="AC1" s="39"/>
       <c r="AD1" s="39"/>
     </row>
-    <row r="2" spans="1:30" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>180</v>
       </c>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="1:30" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>180</v>
       </c>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:30" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>110</v>
       </c>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="E4" s="40"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>110</v>
       </c>
@@ -8553,67 +8553,67 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="57"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="57"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="57"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -8643,15 +8643,15 @@
       <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>180</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>180</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>180</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>180</v>
       </c>
@@ -8706,12 +8706,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="76"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>110</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>110</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>110</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>110</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>110</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>110</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>110</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>110</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>110</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>110</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>110</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>110</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>110</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>110</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>110</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>110</v>
       </c>
@@ -8898,118 +8898,118 @@
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="76"/>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="76"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="101"/>
       <c r="B28" s="76"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="76"/>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="76"/>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="76"/>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="76"/>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="76"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="76"/>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="76"/>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="76"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="76"/>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="76"/>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="76"/>
       <c r="C39" s="42"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="76"/>
       <c r="C40" s="42"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="76"/>
       <c r="C41" s="42"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="76"/>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="101"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="29" operator="equal">
       <formula>"Spare"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
       <formula>"Spare"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9042,19 +9042,19 @@
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" customWidth="1"/>
-    <col min="7" max="7" width="27.90625" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>180</v>
       </c>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="13"/>
       <c r="C4" s="3"/>
@@ -9138,7 +9138,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -9148,7 +9148,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="3"/>
@@ -9158,7 +9158,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
@@ -9168,7 +9168,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="3"/>
@@ -9178,7 +9178,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="3"/>
@@ -9188,7 +9188,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="3"/>
@@ -9198,7 +9198,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="3"/>
@@ -9208,7 +9208,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="3"/>
@@ -9242,16 +9242,16 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="20.1796875" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="12"/>
       <c r="C2" s="24"/>
@@ -9280,7 +9280,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="12"/>
       <c r="C3" s="24"/>
@@ -9288,7 +9288,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="24"/>
@@ -9296,7 +9296,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="24"/>
@@ -9304,7 +9304,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="24"/>
@@ -9312,7 +9312,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="24"/>
@@ -9320,7 +9320,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="24"/>
@@ -9328,7 +9328,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="24"/>
@@ -9336,7 +9336,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="20"/>
       <c r="C10" s="25"/>
@@ -9371,28 +9371,28 @@
   <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.90625" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" customWidth="1"/>
-    <col min="10" max="11" width="16.1796875" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" customWidth="1"/>
-    <col min="15" max="15" width="51.36328125" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="51.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="63" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -9456,15 +9456,15 @@
       <c r="N2" s="28"/>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>26</v>
+      <c r="C3" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -9483,15 +9483,15 @@
       <c r="N3" s="28"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>180</v>
       </c>
       <c r="B4" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>26</v>
+      <c r="C4" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -9510,15 +9510,15 @@
       <c r="N4" s="28"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>180</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>26</v>
+      <c r="C5" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -9537,7 +9537,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>180</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -9570,7 +9570,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>180</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>94</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -9597,7 +9597,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>180</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -9624,7 +9624,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -9641,7 +9641,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>110</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="N10" s="28"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>110</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="N12" s="28"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>110</v>
       </c>
@@ -9755,7 +9755,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>110</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="29"/>
     </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>110</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>110</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="29"/>
     </row>
-    <row r="17" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>110</v>
       </c>
@@ -9855,7 +9855,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="29"/>
     </row>
-    <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>110</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="29"/>
     </row>
-    <row r="19" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>110</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="N19" s="28"/>
       <c r="O19" s="29"/>
     </row>
-    <row r="20" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>110</v>
       </c>
@@ -9948,7 +9948,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="29"/>
     </row>
-    <row r="21" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>110</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>110</v>
       </c>
@@ -10010,7 +10010,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>110</v>
       </c>
@@ -10041,7 +10041,7 @@
       <c r="N23" s="28"/>
       <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>110</v>
       </c>
@@ -10072,7 +10072,7 @@
       <c r="N24" s="28"/>
       <c r="O24" s="29"/>
     </row>
-    <row r="25" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>110</v>
       </c>
@@ -10103,7 +10103,7 @@
       <c r="N25" s="28"/>
       <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>110</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="29"/>
     </row>
-    <row r="27" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>110</v>
       </c>
@@ -10165,7 +10165,7 @@
       <c r="N27" s="28"/>
       <c r="O27" s="29"/>
     </row>
-    <row r="28" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>110</v>
       </c>
@@ -10196,7 +10196,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>110</v>
       </c>
@@ -10227,7 +10227,7 @@
       <c r="N29" s="28"/>
       <c r="O29" s="29"/>
     </row>
-    <row r="30" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>110</v>
       </c>
@@ -10258,7 +10258,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="29"/>
     </row>
-    <row r="31" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>110</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>110</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="N32" s="28"/>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>110</v>
       </c>
@@ -10351,7 +10351,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="29"/>
     </row>
-    <row r="34" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>110</v>
       </c>
@@ -10382,7 +10382,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="29"/>
     </row>
-    <row r="35" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>110</v>
       </c>
@@ -10413,7 +10413,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="29"/>
     </row>
-    <row r="36" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>110</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>110</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>110</v>
       </c>
@@ -10506,7 +10506,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="29"/>
     </row>
-    <row r="39" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>110</v>
       </c>
@@ -10537,7 +10537,7 @@
       <c r="N39" s="28"/>
       <c r="O39" s="29"/>
     </row>
-    <row r="40" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>110</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="N40" s="28"/>
       <c r="O40" s="29"/>
     </row>
-    <row r="41" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>110</v>
       </c>
@@ -10599,7 +10599,7 @@
       <c r="N41" s="28"/>
       <c r="O41" s="29"/>
     </row>
-    <row r="42" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>110</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>110</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>110</v>
       </c>
@@ -10696,7 +10696,7 @@
       <c r="N44" s="28"/>
       <c r="O44" s="29"/>
     </row>
-    <row r="45" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>110</v>
       </c>
@@ -10727,7 +10727,7 @@
       <c r="N45" s="28"/>
       <c r="O45" s="29"/>
     </row>
-    <row r="46" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>110</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="29"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>110</v>
       </c>
@@ -10789,7 +10789,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="29"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>110</v>
       </c>
@@ -10820,7 +10820,7 @@
       <c r="N48" s="61"/>
       <c r="O48" s="29"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>110</v>
       </c>
@@ -10851,7 +10851,7 @@
       <c r="N49" s="28"/>
       <c r="O49" s="29"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>110</v>
       </c>
@@ -10882,7 +10882,7 @@
       <c r="N50" s="28"/>
       <c r="O50" s="29"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>110</v>
       </c>
@@ -10913,7 +10913,7 @@
       <c r="N51" s="28"/>
       <c r="O51" s="29"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>110</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="N52" s="28"/>
       <c r="O52" s="29"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>110</v>
       </c>
@@ -10975,7 +10975,7 @@
       <c r="N53" s="28"/>
       <c r="O53" s="29"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>110</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="N54" s="28"/>
       <c r="O54" s="29"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>110</v>
       </c>
@@ -11037,7 +11037,7 @@
       <c r="N55" s="28"/>
       <c r="O55" s="29"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>110</v>
       </c>
@@ -11068,7 +11068,7 @@
       <c r="N56" s="28"/>
       <c r="O56" s="29"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>110</v>
       </c>
@@ -11099,7 +11099,7 @@
       <c r="N57" s="28"/>
       <c r="O57" s="29"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>110</v>
       </c>
@@ -11130,7 +11130,7 @@
       <c r="N58" s="28"/>
       <c r="O58" s="29"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>110</v>
       </c>
@@ -11161,7 +11161,7 @@
       <c r="N59" s="28"/>
       <c r="O59" s="29"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>110</v>
       </c>
@@ -11192,7 +11192,7 @@
       <c r="N60" s="28"/>
       <c r="O60" s="29"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>110</v>
       </c>
@@ -11223,7 +11223,7 @@
       <c r="N61" s="28"/>
       <c r="O61" s="29"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>110</v>
       </c>
@@ -11254,7 +11254,7 @@
       <c r="N62" s="28"/>
       <c r="O62" s="29"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>110</v>
       </c>
@@ -11285,7 +11285,7 @@
       <c r="N63" s="28"/>
       <c r="O63" s="29"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>110</v>
       </c>
@@ -11316,7 +11316,7 @@
       <c r="N64" s="28"/>
       <c r="O64" s="29"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>110</v>
       </c>
@@ -11347,7 +11347,7 @@
       <c r="N65" s="28"/>
       <c r="O65" s="29"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>110</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="N66" s="28"/>
       <c r="O66" s="29"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>110</v>
       </c>
@@ -11409,7 +11409,7 @@
       <c r="N67" s="28"/>
       <c r="O67" s="29"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
       <c r="B68" s="16"/>
       <c r="C68" s="17"/>
@@ -11426,7 +11426,7 @@
       <c r="N68" s="28"/>
       <c r="O68" s="29"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
@@ -11443,7 +11443,7 @@
       <c r="N69" s="28"/>
       <c r="O69" s="29"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
@@ -11460,7 +11460,7 @@
       <c r="N70" s="28"/>
       <c r="O70" s="29"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
       <c r="B71" s="16"/>
       <c r="C71" s="17"/>
@@ -11477,7 +11477,7 @@
       <c r="N71" s="28"/>
       <c r="O71" s="29"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17"/>
@@ -11494,7 +11494,7 @@
       <c r="N72" s="28"/>
       <c r="O72" s="29"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="16"/>
       <c r="C73" s="17"/>
@@ -11511,7 +11511,7 @@
       <c r="N73" s="28"/>
       <c r="O73" s="29"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" s="16"/>
       <c r="C74" s="17"/>
@@ -11528,7 +11528,7 @@
       <c r="N74" s="28"/>
       <c r="O74" s="29"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="37"/>
       <c r="B75" s="16"/>
       <c r="C75" s="17"/>
@@ -11545,7 +11545,7 @@
       <c r="N75" s="28"/>
       <c r="O75" s="29"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
@@ -11562,7 +11562,7 @@
       <c r="N76" s="28"/>
       <c r="O76" s="29"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="37"/>
       <c r="B77" s="16"/>
       <c r="C77" s="17"/>
@@ -11579,7 +11579,7 @@
       <c r="N77" s="28"/>
       <c r="O77" s="29"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="37"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
@@ -11596,7 +11596,7 @@
       <c r="N78" s="28"/>
       <c r="O78" s="29"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="37"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
@@ -11613,7 +11613,7 @@
       <c r="N79" s="28"/>
       <c r="O79" s="29"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="37"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
@@ -11630,7 +11630,7 @@
       <c r="N80" s="28"/>
       <c r="O80" s="29"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="37"/>
       <c r="B81" s="16"/>
       <c r="C81" s="17"/>
@@ -11647,7 +11647,7 @@
       <c r="N81" s="28"/>
       <c r="O81" s="29"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="37"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
@@ -11664,7 +11664,7 @@
       <c r="N82" s="28"/>
       <c r="O82" s="29"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="37"/>
       <c r="B83" s="16"/>
       <c r="C83" s="17"/>
@@ -11681,7 +11681,7 @@
       <c r="N83" s="28"/>
       <c r="O83" s="29"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="37"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17"/>
@@ -11698,7 +11698,7 @@
       <c r="N84" s="28"/>
       <c r="O84" s="29"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="37"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17"/>
@@ -11715,7 +11715,7 @@
       <c r="N85" s="28"/>
       <c r="O85" s="29"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17"/>
@@ -11732,7 +11732,7 @@
       <c r="N86" s="28"/>
       <c r="O86" s="29"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
       <c r="B87" s="16"/>
       <c r="C87" s="17"/>
@@ -11749,7 +11749,7 @@
       <c r="N87" s="28"/>
       <c r="O87" s="29"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
       <c r="B88" s="16"/>
       <c r="C88" s="17"/>
@@ -11766,7 +11766,7 @@
       <c r="N88" s="28"/>
       <c r="O88" s="29"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
       <c r="B89" s="16"/>
       <c r="C89" s="17"/>
@@ -11783,7 +11783,7 @@
       <c r="N89" s="28"/>
       <c r="O89" s="29"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
       <c r="B90" s="16"/>
       <c r="C90" s="17"/>
@@ -11800,7 +11800,7 @@
       <c r="N90" s="28"/>
       <c r="O90" s="29"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="37"/>
       <c r="B91" s="16"/>
       <c r="C91" s="17"/>
@@ -11817,7 +11817,7 @@
       <c r="N91" s="28"/>
       <c r="O91" s="29"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
@@ -11834,7 +11834,7 @@
       <c r="N92" s="28"/>
       <c r="O92" s="29"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="37"/>
       <c r="B93" s="16"/>
       <c r="C93" s="17"/>
@@ -11851,7 +11851,7 @@
       <c r="N93" s="28"/>
       <c r="O93" s="29"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
@@ -11868,7 +11868,7 @@
       <c r="N94" s="28"/>
       <c r="O94" s="29"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
@@ -11885,7 +11885,7 @@
       <c r="N95" s="28"/>
       <c r="O95" s="29"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="37"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17"/>
@@ -11902,7 +11902,7 @@
       <c r="N96" s="28"/>
       <c r="O96" s="29"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="37"/>
       <c r="B97" s="16"/>
       <c r="C97" s="17"/>
@@ -11919,7 +11919,7 @@
       <c r="N97" s="28"/>
       <c r="O97" s="29"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="37"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17"/>
@@ -11936,7 +11936,7 @@
       <c r="N98" s="28"/>
       <c r="O98" s="29"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="37"/>
       <c r="B99" s="16"/>
       <c r="C99" s="17"/>
@@ -11953,7 +11953,7 @@
       <c r="N99" s="28"/>
       <c r="O99" s="29"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="37"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
@@ -11970,7 +11970,7 @@
       <c r="N100" s="28"/>
       <c r="O100" s="29"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
       <c r="B101" s="16"/>
       <c r="C101" s="17"/>
@@ -11987,7 +11987,7 @@
       <c r="N101" s="28"/>
       <c r="O101" s="29"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
       <c r="B102" s="16"/>
       <c r="C102" s="17"/>
@@ -12004,7 +12004,7 @@
       <c r="N102" s="28"/>
       <c r="O102" s="29"/>
     </row>
-    <row r="103" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
       <c r="B103" s="16"/>
       <c r="C103" s="17"/>
@@ -12021,7 +12021,7 @@
       <c r="N103" s="28"/>
       <c r="O103" s="29"/>
     </row>
-    <row r="104" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
@@ -12038,7 +12038,7 @@
       <c r="N104" s="28"/>
       <c r="O104" s="29"/>
     </row>
-    <row r="105" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
       <c r="B105" s="16"/>
       <c r="C105" s="17"/>
@@ -12055,7 +12055,7 @@
       <c r="N105" s="28"/>
       <c r="O105" s="29"/>
     </row>
-    <row r="106" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11"/>
       <c r="B106" s="16"/>
       <c r="C106" s="17"/>
@@ -12072,7 +12072,7 @@
       <c r="N106" s="28"/>
       <c r="O106" s="30"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="B107" s="14"/>
       <c r="C107" s="17"/>
@@ -12089,7 +12089,7 @@
       <c r="N107" s="28"/>
       <c r="O107" s="30"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="14"/>
       <c r="C108" s="17"/>
@@ -12106,7 +12106,7 @@
       <c r="N108" s="28"/>
       <c r="O108" s="29"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="14"/>
       <c r="C109" s="17"/>
@@ -12123,7 +12123,7 @@
       <c r="N109" s="28"/>
       <c r="O109" s="29"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="14"/>
       <c r="C110" s="17"/>
@@ -12140,7 +12140,7 @@
       <c r="N110" s="28"/>
       <c r="O110" s="29"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="14"/>
       <c r="C111" s="17"/>
@@ -12157,7 +12157,7 @@
       <c r="N111" s="28"/>
       <c r="O111" s="29"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="11"/>
       <c r="B112" s="14"/>
       <c r="C112" s="17"/>
@@ -12174,7 +12174,7 @@
       <c r="N112" s="28"/>
       <c r="O112" s="29"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="14"/>
       <c r="C113" s="17"/>
@@ -12191,7 +12191,7 @@
       <c r="N113" s="28"/>
       <c r="O113" s="29"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="14"/>
       <c r="C114" s="17"/>
@@ -12208,7 +12208,7 @@
       <c r="N114" s="28"/>
       <c r="O114" s="29"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="14"/>
       <c r="C115" s="17"/>
@@ -12225,7 +12225,7 @@
       <c r="N115" s="28"/>
       <c r="O115" s="29"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="14"/>
       <c r="C116" s="17"/>
@@ -12242,7 +12242,7 @@
       <c r="N116" s="28"/>
       <c r="O116" s="29"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="11"/>
       <c r="B117" s="14"/>
       <c r="C117" s="17"/>
@@ -12259,7 +12259,7 @@
       <c r="N117" s="28"/>
       <c r="O117" s="29"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="14"/>
       <c r="C118" s="17"/>
@@ -12276,7 +12276,7 @@
       <c r="N118" s="28"/>
       <c r="O118" s="29"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="14"/>
       <c r="C119" s="17"/>
@@ -12293,7 +12293,7 @@
       <c r="N119" s="28"/>
       <c r="O119" s="29"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="14"/>
       <c r="C120" s="17"/>
@@ -12310,7 +12310,7 @@
       <c r="N120" s="28"/>
       <c r="O120" s="29"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="14"/>
       <c r="C121" s="17"/>
@@ -12327,7 +12327,7 @@
       <c r="N121" s="28"/>
       <c r="O121" s="29"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="11"/>
       <c r="B122" s="14"/>
       <c r="C122" s="17"/>
@@ -12344,7 +12344,7 @@
       <c r="N122" s="55"/>
       <c r="O122" s="30"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="11"/>
       <c r="B123" s="14"/>
       <c r="C123" s="17"/>
@@ -12361,7 +12361,7 @@
       <c r="N123" s="55"/>
       <c r="O123" s="30"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="11"/>
       <c r="B124" s="14"/>
       <c r="C124" s="17"/>
@@ -12378,7 +12378,7 @@
       <c r="N124" s="55"/>
       <c r="O124" s="30"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="11"/>
       <c r="B125" s="14"/>
       <c r="C125" s="17"/>
@@ -12395,7 +12395,7 @@
       <c r="N125" s="55"/>
       <c r="O125" s="30"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11"/>
       <c r="B126" s="14"/>
       <c r="C126" s="17"/>
@@ -12412,7 +12412,7 @@
       <c r="N126" s="55"/>
       <c r="O126" s="30"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
@@ -12429,7 +12429,7 @@
       <c r="N127" s="55"/>
       <c r="O127" s="30"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -12446,7 +12446,7 @@
       <c r="N128" s="55"/>
       <c r="O128" s="30"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="11"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -12463,7 +12463,7 @@
       <c r="N129" s="55"/>
       <c r="O129" s="30"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="11"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -12480,7 +12480,7 @@
       <c r="N130" s="55"/>
       <c r="O130" s="30"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="37"/>
       <c r="B131" s="16"/>
       <c r="C131" s="53"/>
@@ -12497,7 +12497,7 @@
       <c r="N131" s="55"/>
       <c r="O131" s="29"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="37"/>
       <c r="B132" s="16"/>
       <c r="C132" s="53"/>
@@ -12514,7 +12514,7 @@
       <c r="N132" s="55"/>
       <c r="O132" s="29"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="37"/>
       <c r="B133" s="16"/>
       <c r="C133" s="53"/>
@@ -12531,7 +12531,7 @@
       <c r="N133" s="55"/>
       <c r="O133" s="29"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="37"/>
       <c r="B134" s="16"/>
       <c r="C134" s="53"/>
@@ -12548,7 +12548,7 @@
       <c r="N134" s="55"/>
       <c r="O134" s="29"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="37"/>
       <c r="B135" s="16"/>
       <c r="C135" s="53"/>
@@ -12565,7 +12565,7 @@
       <c r="N135" s="55"/>
       <c r="O135" s="29"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="37"/>
       <c r="B136" s="16"/>
       <c r="C136" s="53"/>
@@ -12582,7 +12582,7 @@
       <c r="N136" s="55"/>
       <c r="O136" s="29"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="37"/>
       <c r="B137" s="16"/>
       <c r="C137" s="53"/>
@@ -12599,7 +12599,7 @@
       <c r="N137" s="55"/>
       <c r="O137" s="29"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="37"/>
       <c r="B138" s="16"/>
       <c r="C138" s="53"/>
@@ -12616,7 +12616,7 @@
       <c r="N138" s="55"/>
       <c r="O138" s="29"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="37"/>
       <c r="B139" s="16"/>
       <c r="C139" s="53"/>
@@ -12633,7 +12633,7 @@
       <c r="N139" s="55"/>
       <c r="O139" s="29"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="37"/>
       <c r="B140" s="16"/>
       <c r="C140" s="53"/>
@@ -12650,7 +12650,7 @@
       <c r="N140" s="55"/>
       <c r="O140" s="29"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="37"/>
       <c r="B141" s="16"/>
       <c r="C141" s="53"/>
@@ -12667,7 +12667,7 @@
       <c r="N141" s="55"/>
       <c r="O141" s="29"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="37"/>
       <c r="B142" s="16"/>
       <c r="C142" s="53"/>
@@ -12684,7 +12684,7 @@
       <c r="N142" s="55"/>
       <c r="O142" s="29"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="37"/>
       <c r="B143" s="16"/>
       <c r="C143" s="53"/>
@@ -12701,7 +12701,7 @@
       <c r="N143" s="55"/>
       <c r="O143" s="29"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="37"/>
       <c r="B144" s="16"/>
       <c r="C144" s="53"/>
@@ -12718,7 +12718,7 @@
       <c r="N144" s="55"/>
       <c r="O144" s="29"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="37"/>
       <c r="B145" s="16"/>
       <c r="C145" s="53"/>
@@ -12735,7 +12735,7 @@
       <c r="N145" s="55"/>
       <c r="O145" s="29"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="37"/>
       <c r="B146" s="16"/>
       <c r="C146" s="53"/>
@@ -12752,7 +12752,7 @@
       <c r="N146" s="55"/>
       <c r="O146" s="29"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="37"/>
       <c r="B147" s="16"/>
       <c r="C147" s="53"/>
@@ -12769,7 +12769,7 @@
       <c r="N147" s="55"/>
       <c r="O147" s="29"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="37"/>
       <c r="B148" s="16"/>
       <c r="C148" s="53"/>
@@ -12786,7 +12786,7 @@
       <c r="N148" s="55"/>
       <c r="O148" s="29"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="37"/>
       <c r="B149" s="16"/>
       <c r="C149" s="53"/>
@@ -12803,7 +12803,7 @@
       <c r="N149" s="55"/>
       <c r="O149" s="29"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="37"/>
       <c r="B150" s="16"/>
       <c r="C150" s="53"/>
@@ -12820,7 +12820,7 @@
       <c r="N150" s="55"/>
       <c r="O150" s="29"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="37"/>
       <c r="B151" s="16"/>
       <c r="C151" s="53"/>
@@ -12837,7 +12837,7 @@
       <c r="N151" s="55"/>
       <c r="O151" s="29"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="37"/>
       <c r="B152" s="16"/>
       <c r="C152" s="53"/>
@@ -12854,7 +12854,7 @@
       <c r="N152" s="55"/>
       <c r="O152" s="29"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="37"/>
       <c r="B153" s="16"/>
       <c r="C153" s="53"/>
@@ -12871,7 +12871,7 @@
       <c r="N153" s="55"/>
       <c r="O153" s="29"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="37"/>
       <c r="B154" s="16"/>
       <c r="C154" s="53"/>
@@ -12888,7 +12888,7 @@
       <c r="N154" s="55"/>
       <c r="O154" s="29"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="37"/>
       <c r="B155" s="16"/>
       <c r="C155" s="53"/>
@@ -12905,7 +12905,7 @@
       <c r="N155" s="55"/>
       <c r="O155" s="29"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="37"/>
       <c r="B156" s="16"/>
       <c r="C156" s="53"/>
@@ -12922,7 +12922,7 @@
       <c r="N156" s="55"/>
       <c r="O156" s="29"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="37"/>
       <c r="B157" s="16"/>
       <c r="C157" s="53"/>
@@ -12939,7 +12939,7 @@
       <c r="N157" s="55"/>
       <c r="O157" s="29"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="37"/>
       <c r="B158" s="16"/>
       <c r="C158" s="53"/>
@@ -12956,7 +12956,7 @@
       <c r="N158" s="55"/>
       <c r="O158" s="29"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="37"/>
       <c r="B159" s="16"/>
       <c r="C159" s="53"/>
@@ -12973,7 +12973,7 @@
       <c r="N159" s="55"/>
       <c r="O159" s="29"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="37"/>
       <c r="B160" s="16"/>
       <c r="C160" s="53"/>
@@ -12990,7 +12990,7 @@
       <c r="N160" s="55"/>
       <c r="O160" s="29"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="37"/>
       <c r="B161" s="16"/>
       <c r="C161" s="53"/>
@@ -13007,7 +13007,7 @@
       <c r="N161" s="55"/>
       <c r="O161" s="29"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="37"/>
       <c r="B162" s="16"/>
       <c r="C162" s="53"/>
@@ -13024,7 +13024,7 @@
       <c r="N162" s="55"/>
       <c r="O162" s="29"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="37"/>
       <c r="B163" s="16"/>
       <c r="C163" s="53"/>
@@ -13041,7 +13041,7 @@
       <c r="N163" s="55"/>
       <c r="O163" s="29"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="37"/>
       <c r="B164" s="16"/>
       <c r="C164" s="53"/>
@@ -13058,7 +13058,7 @@
       <c r="N164" s="55"/>
       <c r="O164" s="29"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="37"/>
       <c r="B165" s="16"/>
       <c r="C165" s="53"/>
@@ -13075,7 +13075,7 @@
       <c r="N165" s="55"/>
       <c r="O165" s="29"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="37"/>
       <c r="B166" s="16"/>
       <c r="C166" s="53"/>
@@ -13092,7 +13092,7 @@
       <c r="N166" s="55"/>
       <c r="O166" s="29"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="37"/>
       <c r="B167" s="16"/>
       <c r="C167" s="53"/>
@@ -13109,7 +13109,7 @@
       <c r="N167" s="55"/>
       <c r="O167" s="29"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="37"/>
       <c r="B168" s="16"/>
       <c r="C168" s="53"/>
@@ -13126,7 +13126,7 @@
       <c r="N168" s="55"/>
       <c r="O168" s="29"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="37"/>
       <c r="B169" s="16"/>
       <c r="C169" s="53"/>
@@ -13143,7 +13143,7 @@
       <c r="N169" s="55"/>
       <c r="O169" s="29"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="37"/>
       <c r="B170" s="16"/>
       <c r="C170" s="53"/>
@@ -13160,7 +13160,7 @@
       <c r="N170" s="55"/>
       <c r="O170" s="29"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="37"/>
       <c r="B171" s="16"/>
       <c r="C171" s="53"/>
@@ -13177,7 +13177,7 @@
       <c r="N171" s="55"/>
       <c r="O171" s="29"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="37"/>
       <c r="B172" s="16"/>
       <c r="C172" s="53"/>
@@ -13194,7 +13194,7 @@
       <c r="N172" s="55"/>
       <c r="O172" s="29"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="37"/>
       <c r="B173" s="16"/>
       <c r="C173" s="53"/>
@@ -13211,7 +13211,7 @@
       <c r="N173" s="55"/>
       <c r="O173" s="29"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="37"/>
       <c r="B174" s="16"/>
       <c r="C174" s="53"/>
@@ -13228,7 +13228,7 @@
       <c r="N174" s="55"/>
       <c r="O174" s="29"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="37"/>
       <c r="B175" s="16"/>
       <c r="C175" s="53"/>
@@ -13245,7 +13245,7 @@
       <c r="N175" s="55"/>
       <c r="O175" s="29"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="37"/>
       <c r="B176" s="16"/>
       <c r="C176" s="53"/>
@@ -13262,7 +13262,7 @@
       <c r="N176" s="55"/>
       <c r="O176" s="29"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="37"/>
       <c r="B177" s="16"/>
       <c r="C177" s="53"/>
@@ -13279,7 +13279,7 @@
       <c r="N177" s="55"/>
       <c r="O177" s="29"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="37"/>
       <c r="B178" s="16"/>
       <c r="C178" s="53"/>
@@ -13296,7 +13296,7 @@
       <c r="N178" s="55"/>
       <c r="O178" s="29"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="37"/>
       <c r="B179" s="16"/>
       <c r="C179" s="53"/>
@@ -13313,7 +13313,7 @@
       <c r="N179" s="55"/>
       <c r="O179" s="29"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="37"/>
       <c r="B180" s="16"/>
       <c r="C180" s="53"/>
@@ -13330,7 +13330,7 @@
       <c r="N180" s="55"/>
       <c r="O180" s="29"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="37"/>
       <c r="B181" s="16"/>
       <c r="C181" s="53"/>
@@ -13347,7 +13347,7 @@
       <c r="N181" s="55"/>
       <c r="O181" s="29"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="37"/>
       <c r="B182" s="16"/>
       <c r="C182" s="53"/>
@@ -13364,7 +13364,7 @@
       <c r="N182" s="55"/>
       <c r="O182" s="29"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="37"/>
       <c r="B183" s="16"/>
       <c r="C183" s="53"/>
@@ -13381,7 +13381,7 @@
       <c r="N183" s="55"/>
       <c r="O183" s="29"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="37"/>
       <c r="B184" s="16"/>
       <c r="C184" s="53"/>
@@ -13398,7 +13398,7 @@
       <c r="N184" s="55"/>
       <c r="O184" s="29"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="37"/>
       <c r="B185" s="16"/>
       <c r="C185" s="53"/>
@@ -13415,7 +13415,7 @@
       <c r="N185" s="55"/>
       <c r="O185" s="29"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="37"/>
       <c r="B186" s="16"/>
       <c r="C186" s="53"/>
@@ -13432,7 +13432,7 @@
       <c r="N186" s="55"/>
       <c r="O186" s="29"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="37"/>
       <c r="B187" s="16"/>
       <c r="C187" s="53"/>
@@ -13449,7 +13449,7 @@
       <c r="N187" s="55"/>
       <c r="O187" s="29"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="37"/>
       <c r="B188" s="16"/>
       <c r="C188" s="53"/>
@@ -13466,7 +13466,7 @@
       <c r="N188" s="55"/>
       <c r="O188" s="29"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="37"/>
       <c r="B189" s="16"/>
       <c r="C189" s="53"/>
@@ -13483,7 +13483,7 @@
       <c r="N189" s="55"/>
       <c r="O189" s="29"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="37"/>
       <c r="B190" s="16"/>
       <c r="C190" s="53"/>
@@ -13500,7 +13500,7 @@
       <c r="N190" s="55"/>
       <c r="O190" s="29"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="37"/>
       <c r="B191" s="16"/>
       <c r="C191" s="53"/>
@@ -13517,7 +13517,7 @@
       <c r="N191" s="55"/>
       <c r="O191" s="29"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="37"/>
       <c r="B192" s="16"/>
       <c r="C192" s="53"/>
@@ -13534,7 +13534,7 @@
       <c r="N192" s="55"/>
       <c r="O192" s="29"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="37"/>
       <c r="B193" s="16"/>
       <c r="C193" s="53"/>
@@ -13551,7 +13551,7 @@
       <c r="N193" s="55"/>
       <c r="O193" s="29"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="37"/>
       <c r="B194" s="16"/>
       <c r="C194" s="53"/>
@@ -13568,7 +13568,7 @@
       <c r="N194" s="55"/>
       <c r="O194" s="29"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="37"/>
       <c r="B195" s="16"/>
       <c r="C195" s="53"/>
@@ -13585,7 +13585,7 @@
       <c r="N195" s="55"/>
       <c r="O195" s="29"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="37"/>
       <c r="B196" s="16"/>
       <c r="C196" s="53"/>
@@ -13602,7 +13602,7 @@
       <c r="N196" s="55"/>
       <c r="O196" s="29"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="37"/>
       <c r="B197" s="16"/>
       <c r="C197" s="53"/>
@@ -13619,7 +13619,7 @@
       <c r="N197" s="55"/>
       <c r="O197" s="29"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="37"/>
       <c r="B198" s="16"/>
       <c r="C198" s="53"/>
@@ -13636,7 +13636,7 @@
       <c r="N198" s="55"/>
       <c r="O198" s="29"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="37"/>
       <c r="B199" s="16"/>
       <c r="C199" s="53"/>
@@ -13653,7 +13653,7 @@
       <c r="N199" s="55"/>
       <c r="O199" s="29"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="37"/>
       <c r="B200" s="16"/>
       <c r="C200" s="53"/>
@@ -13670,7 +13670,7 @@
       <c r="N200" s="55"/>
       <c r="O200" s="29"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="37"/>
       <c r="B201" s="16"/>
       <c r="C201" s="53"/>
@@ -13687,7 +13687,7 @@
       <c r="N201" s="55"/>
       <c r="O201" s="29"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="37"/>
       <c r="B202" s="16"/>
       <c r="C202" s="53"/>
@@ -13704,7 +13704,7 @@
       <c r="N202" s="55"/>
       <c r="O202" s="29"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="37"/>
       <c r="B203" s="16"/>
       <c r="C203" s="53"/>
@@ -13721,7 +13721,7 @@
       <c r="N203" s="55"/>
       <c r="O203" s="29"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="37"/>
       <c r="B204" s="16"/>
       <c r="C204" s="53"/>
@@ -13738,7 +13738,7 @@
       <c r="N204" s="55"/>
       <c r="O204" s="29"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="37"/>
       <c r="B205" s="16"/>
       <c r="C205" s="53"/>
@@ -13755,7 +13755,7 @@
       <c r="N205" s="55"/>
       <c r="O205" s="29"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="37"/>
       <c r="B206" s="16"/>
       <c r="C206" s="53"/>
@@ -13772,7 +13772,7 @@
       <c r="N206" s="55"/>
       <c r="O206" s="29"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="37"/>
       <c r="B207" s="16"/>
       <c r="C207" s="53"/>
@@ -13789,7 +13789,7 @@
       <c r="N207" s="55"/>
       <c r="O207" s="29"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="37"/>
       <c r="B208" s="16"/>
       <c r="C208" s="53"/>
@@ -13806,7 +13806,7 @@
       <c r="N208" s="55"/>
       <c r="O208" s="29"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="37"/>
       <c r="B209" s="16"/>
       <c r="C209" s="53"/>
@@ -13823,7 +13823,7 @@
       <c r="N209" s="55"/>
       <c r="O209" s="29"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="37"/>
       <c r="B210" s="16"/>
       <c r="C210" s="53"/>
@@ -13840,7 +13840,7 @@
       <c r="N210" s="55"/>
       <c r="O210" s="29"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="37"/>
       <c r="B211" s="16"/>
       <c r="C211" s="53"/>
@@ -13857,7 +13857,7 @@
       <c r="N211" s="55"/>
       <c r="O211" s="29"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="37"/>
       <c r="B212" s="16"/>
       <c r="C212" s="53"/>
@@ -13874,7 +13874,7 @@
       <c r="N212" s="55"/>
       <c r="O212" s="29"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="37"/>
       <c r="B213" s="16"/>
       <c r="C213" s="53"/>
@@ -13891,7 +13891,7 @@
       <c r="N213" s="55"/>
       <c r="O213" s="29"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="37"/>
       <c r="B214" s="16"/>
       <c r="C214" s="53"/>
@@ -13908,7 +13908,7 @@
       <c r="N214" s="55"/>
       <c r="O214" s="29"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="37"/>
       <c r="B215" s="16"/>
       <c r="C215" s="53"/>
@@ -13925,7 +13925,7 @@
       <c r="N215" s="55"/>
       <c r="O215" s="29"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="37"/>
       <c r="B216" s="16"/>
       <c r="C216" s="53"/>
@@ -13942,7 +13942,7 @@
       <c r="N216" s="55"/>
       <c r="O216" s="29"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="37"/>
       <c r="B217" s="16"/>
       <c r="C217" s="53"/>
@@ -13959,7 +13959,7 @@
       <c r="N217" s="55"/>
       <c r="O217" s="29"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="37"/>
       <c r="B218" s="16"/>
       <c r="C218" s="53"/>
@@ -13976,7 +13976,7 @@
       <c r="N218" s="55"/>
       <c r="O218" s="29"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="37"/>
       <c r="B219" s="16"/>
       <c r="C219" s="53"/>
@@ -13993,7 +13993,7 @@
       <c r="N219" s="55"/>
       <c r="O219" s="29"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="37"/>
       <c r="B220" s="16"/>
       <c r="C220" s="53"/>
@@ -14010,7 +14010,7 @@
       <c r="N220" s="55"/>
       <c r="O220" s="29"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="37"/>
       <c r="B221" s="16"/>
       <c r="C221" s="53"/>
@@ -14027,7 +14027,7 @@
       <c r="N221" s="55"/>
       <c r="O221" s="29"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="37"/>
       <c r="B222" s="16"/>
       <c r="C222" s="53"/>
@@ -14044,7 +14044,7 @@
       <c r="N222" s="55"/>
       <c r="O222" s="29"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="37"/>
       <c r="B223" s="16"/>
       <c r="C223" s="53"/>
@@ -14061,7 +14061,7 @@
       <c r="N223" s="55"/>
       <c r="O223" s="29"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="37"/>
       <c r="B224" s="16"/>
       <c r="C224" s="53"/>
@@ -14078,7 +14078,7 @@
       <c r="N224" s="55"/>
       <c r="O224" s="29"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="37"/>
       <c r="B225" s="16"/>
       <c r="C225" s="53"/>
@@ -14095,7 +14095,7 @@
       <c r="N225" s="55"/>
       <c r="O225" s="29"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="37"/>
       <c r="B226" s="16"/>
       <c r="C226" s="53"/>
@@ -14112,7 +14112,7 @@
       <c r="N226" s="55"/>
       <c r="O226" s="29"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="37"/>
       <c r="B227" s="16"/>
       <c r="C227" s="53"/>
@@ -14129,7 +14129,7 @@
       <c r="N227" s="55"/>
       <c r="O227" s="29"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="37"/>
       <c r="B228" s="16"/>
       <c r="C228" s="53"/>
@@ -14146,7 +14146,7 @@
       <c r="N228" s="55"/>
       <c r="O228" s="29"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="37"/>
       <c r="B229" s="16"/>
       <c r="C229" s="53"/>
@@ -14163,7 +14163,7 @@
       <c r="N229" s="55"/>
       <c r="O229" s="29"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="37"/>
       <c r="B230" s="16"/>
       <c r="C230" s="53"/>
@@ -14180,7 +14180,7 @@
       <c r="N230" s="55"/>
       <c r="O230" s="29"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="37"/>
       <c r="B231" s="16"/>
       <c r="C231" s="53"/>
@@ -14197,7 +14197,7 @@
       <c r="N231" s="55"/>
       <c r="O231" s="29"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="37"/>
       <c r="B232" s="16"/>
       <c r="C232" s="53"/>
@@ -14214,7 +14214,7 @@
       <c r="N232" s="55"/>
       <c r="O232" s="29"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="37"/>
       <c r="B233" s="16"/>
       <c r="C233" s="53"/>
@@ -14231,7 +14231,7 @@
       <c r="N233" s="55"/>
       <c r="O233" s="29"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="37"/>
       <c r="B234" s="16"/>
       <c r="C234" s="53"/>
@@ -14248,7 +14248,7 @@
       <c r="N234" s="55"/>
       <c r="O234" s="29"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="37"/>
       <c r="B235" s="16"/>
       <c r="C235" s="53"/>
@@ -14265,7 +14265,7 @@
       <c r="N235" s="55"/>
       <c r="O235" s="29"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="37"/>
       <c r="B236" s="16"/>
       <c r="C236" s="53"/>
@@ -14282,7 +14282,7 @@
       <c r="N236" s="55"/>
       <c r="O236" s="29"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="37"/>
       <c r="B237" s="16"/>
       <c r="C237" s="53"/>
@@ -14299,7 +14299,7 @@
       <c r="N237" s="55"/>
       <c r="O237" s="29"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="37"/>
       <c r="B238" s="16"/>
       <c r="C238" s="53"/>
@@ -14316,7 +14316,7 @@
       <c r="N238" s="55"/>
       <c r="O238" s="29"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="37"/>
       <c r="B239" s="16"/>
       <c r="C239" s="53"/>
@@ -14333,7 +14333,7 @@
       <c r="N239" s="55"/>
       <c r="O239" s="29"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="37"/>
       <c r="B240" s="16"/>
       <c r="C240" s="53"/>
@@ -14350,7 +14350,7 @@
       <c r="N240" s="55"/>
       <c r="O240" s="29"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="37"/>
       <c r="B241" s="16"/>
       <c r="C241" s="53"/>
@@ -14367,7 +14367,7 @@
       <c r="N241" s="55"/>
       <c r="O241" s="29"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="37"/>
       <c r="B242" s="16"/>
       <c r="C242" s="53"/>
@@ -14384,7 +14384,7 @@
       <c r="N242" s="55"/>
       <c r="O242" s="29"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="37"/>
       <c r="B243" s="16"/>
       <c r="C243" s="53"/>
@@ -14401,7 +14401,7 @@
       <c r="N243" s="55"/>
       <c r="O243" s="29"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="37"/>
       <c r="B244" s="16"/>
       <c r="C244" s="53"/>
@@ -14418,7 +14418,7 @@
       <c r="N244" s="55"/>
       <c r="O244" s="29"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="37"/>
       <c r="B245" s="16"/>
       <c r="C245" s="53"/>
@@ -14435,7 +14435,7 @@
       <c r="N245" s="55"/>
       <c r="O245" s="29"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="37"/>
       <c r="B246" s="16"/>
       <c r="C246" s="53"/>
@@ -14452,7 +14452,7 @@
       <c r="N246" s="55"/>
       <c r="O246" s="29"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="37"/>
       <c r="B247" s="16"/>
       <c r="C247" s="53"/>
@@ -14469,7 +14469,7 @@
       <c r="N247" s="55"/>
       <c r="O247" s="29"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="37"/>
       <c r="B248" s="16"/>
       <c r="C248" s="53"/>
@@ -14486,7 +14486,7 @@
       <c r="N248" s="55"/>
       <c r="O248" s="29"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="37"/>
       <c r="B249" s="16"/>
       <c r="C249" s="53"/>
@@ -14503,7 +14503,7 @@
       <c r="N249" s="55"/>
       <c r="O249" s="29"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="37"/>
       <c r="B250" s="16"/>
       <c r="C250" s="53"/>
@@ -14520,7 +14520,7 @@
       <c r="N250" s="55"/>
       <c r="O250" s="29"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="37"/>
       <c r="B251" s="16"/>
       <c r="C251" s="53"/>
@@ -14537,7 +14537,7 @@
       <c r="N251" s="55"/>
       <c r="O251" s="29"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="37"/>
       <c r="B252" s="16"/>
       <c r="C252" s="53"/>
@@ -14554,7 +14554,7 @@
       <c r="N252" s="55"/>
       <c r="O252" s="29"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="37"/>
       <c r="B253" s="16"/>
       <c r="C253" s="53"/>
@@ -14571,7 +14571,7 @@
       <c r="N253" s="55"/>
       <c r="O253" s="29"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="37"/>
       <c r="B254" s="16"/>
       <c r="C254" s="53"/>
@@ -14588,7 +14588,7 @@
       <c r="N254" s="55"/>
       <c r="O254" s="29"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="37"/>
       <c r="B255" s="16"/>
       <c r="C255" s="53"/>
@@ -14605,7 +14605,7 @@
       <c r="N255" s="55"/>
       <c r="O255" s="29"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="37"/>
       <c r="B256" s="16"/>
       <c r="C256" s="53"/>
@@ -14622,7 +14622,7 @@
       <c r="N256" s="55"/>
       <c r="O256" s="29"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="90"/>
       <c r="B257" s="95"/>
       <c r="C257" s="91"/>
@@ -14641,7 +14641,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75:C130 G75:G130 C2:C8" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75:C130 G75:G130 C2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14681,15 +14681,15 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="44.81640625" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>110</v>
       </c>
@@ -14721,49 +14721,49 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
